--- a/data/trans_bre/P8_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,76</t>
+          <t>0,75; 10,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,87</t>
+          <t>-4,35; 5,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,62</t>
+          <t>-2,72; 6,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,86</t>
+          <t>1,63; 8,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 138,64</t>
+          <t>6,4; 143,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 64,89</t>
+          <t>-32,53; 62,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 80,54</t>
+          <t>-22,94; 86,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 138,97</t>
+          <t>18,07; 139,42</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,66</t>
+          <t>-2,65; 4,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 3,58</t>
+          <t>-5,84; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 5,23</t>
+          <t>-4,2; 5,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,66</t>
+          <t>-2,02; 6,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 101,87</t>
+          <t>-40,87; 108,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 37,28</t>
+          <t>-40,78; 47,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 66,62</t>
+          <t>-34,2; 61,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 70,16</t>
+          <t>-14,51; 68,9</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 20,3</t>
+          <t>5,62; 19,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 14,26</t>
+          <t>1,83; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 17,27</t>
+          <t>1,11; 16,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 12,26</t>
+          <t>-55,59; 12,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,18; 205,51</t>
+          <t>41,81; 198,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 99,15</t>
+          <t>8,59; 96,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 126,89</t>
+          <t>6,89; 131,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 74,69</t>
+          <t>-69,81; 80,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,54</t>
+          <t>0,56; 7,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,65</t>
+          <t>-4,75; 2,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,16</t>
+          <t>-2,47; 4,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -1,32</t>
+          <t>-12,71; -1,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 54,84</t>
+          <t>3,44; 57,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 16,15</t>
+          <t>-25,5; 17,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 29,17</t>
+          <t>-14,35; 32,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,4; -7,46</t>
+          <t>-66,08; -7,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 10,4</t>
+          <t>0,47; 10,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,44</t>
+          <t>11,04; 21,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 12,93</t>
+          <t>3,87; 12,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 10,06</t>
+          <t>-2,59; 10,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 86,34</t>
+          <t>2,82; 90,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,07; 147,03</t>
+          <t>56,0; 146,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 73,17</t>
+          <t>17,71; 71,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 53,1</t>
+          <t>-10,1; 54,49</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,06; 30,3</t>
+          <t>24,03; 30,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,04; 34,27</t>
+          <t>26,32; 34,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,33; 31,4</t>
+          <t>24,13; 31,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,89; 33,27</t>
+          <t>26,8; 33,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>534,12; 2818,59</t>
+          <t>517,18; 2807,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>426,86; 2113,09</t>
+          <t>392,57; 1949,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>546,91; 3821,36</t>
+          <t>532,69; 3549,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>745,08; 4843,76</t>
+          <t>788,94; 5683,95</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 12,02</t>
+          <t>8,52; 11,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,51</t>
+          <t>8,61; 12,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,65</t>
+          <t>6,81; 10,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 7,39</t>
+          <t>-20,19; 6,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,62; 114,6</t>
+          <t>70,74; 116,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,8; 91,02</t>
+          <t>55,76; 92,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,49; 81,39</t>
+          <t>46,07; 81,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 51,05</t>
+          <t>-48,67; 46,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
